--- a/PCA/PCA_test.xlsx
+++ b/PCA/PCA_test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/024efd841f36a2c5/Skrivbord/TATA62/profit_decomposition/PCA/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/linus/Desktop/TATA62/PCA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{75553003-0A47-8648-81B9-60D0C1FA2249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{363C4DE6-A68A-41B0-80D8-F36116EBE828}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75553003-0A47-8648-81B9-60D0C1FA2249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E9A40D9F-703E-474E-91FE-C64FC4383DDE}"/>
+    <workbookView xWindow="8540" yWindow="0" windowWidth="27300" windowHeight="22400" xr2:uid="{E9A40D9F-703E-474E-91FE-C64FC4383DDE}"/>
   </bookViews>
   <sheets>
     <sheet name="Cash Flows" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Cash flow</t>
   </si>
@@ -48,9 +48,6 @@
   </si>
   <si>
     <t>Slutdatum</t>
-  </si>
-  <si>
-    <t>Cashflow</t>
   </si>
 </sst>
 </file>
@@ -424,24 +421,20 @@
   <dimension ref="C5:X29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="4.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="12" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="26" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="26" width="10.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="E5" s="2" t="s">
         <v>1</v>
@@ -455,20 +448,8 @@
       <c r="H5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="M5" t="s">
-        <v>1</v>
-      </c>
-      <c r="N5" t="s">
-        <v>4</v>
-      </c>
-      <c r="O5" t="s">
-        <v>2</v>
-      </c>
-      <c r="P5" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="E6" s="1">
         <v>44917</v>
@@ -482,20 +463,8 @@
       <c r="H6" s="1">
         <v>44871</v>
       </c>
-      <c r="M6" s="1">
-        <v>44854</v>
-      </c>
-      <c r="N6">
-        <v>100</v>
-      </c>
-      <c r="O6" s="1">
-        <v>44852</v>
-      </c>
-      <c r="P6" s="1">
-        <v>44871</v>
-      </c>
-    </row>
-    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="E7" s="1">
         <v>44927</v>
@@ -503,23 +472,17 @@
       <c r="F7">
         <v>200</v>
       </c>
-      <c r="M7" s="1">
-        <v>44927</v>
-      </c>
-      <c r="N7">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
     </row>
-    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -542,58 +505,58 @@
       <c r="W11" s="1"/>
       <c r="X11" s="1"/>
     </row>
-    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C12" s="1"/>
     </row>
-    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
     </row>
-    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C14" s="1"/>
     </row>
-    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C15" s="1"/>
     </row>
-    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
     </row>
-    <row r="21" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
     </row>
   </sheetData>
